--- a/schoolmeal-react/public/ingredientInfo/safety-template.xlsx
+++ b/schoolmeal-react/public/ingredientInfo/safety-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG115\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG115\Desktop\schoolMeal_Local\schoolmeal-react\public\ingredientInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,57 +28,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>HACCP 지정번호</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>카테고리</t>
   </si>
   <si>
-    <t>업소명</t>
-  </si>
-  <si>
-    <t>주소</t>
-  </si>
-  <si>
-    <t>품목명</t>
-  </si>
-  <si>
-    <t>영업상태</t>
-  </si>
-  <si>
-    <t>인증 종료일자</t>
-  </si>
-  <si>
-    <t>2024-00-0000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수산물</t>
-  </si>
-  <si>
-    <t>name1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>영업중</t>
-  </si>
-  <si>
     <t>데이터 입력완료여부</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>addr1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜 형식으로 입력(yyyy-mm-dd)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>문자로 입력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>농산물, 수산물, 축산물, 공산품 중 선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리(필수)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력값</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석결과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사기관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사물질</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -89,7 +89,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>인증</t>
+      <t>품목명</t>
     </r>
     <r>
       <rPr>
@@ -98,7 +98,7 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -108,7 +108,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>종료일자</t>
+      <t>필수</t>
     </r>
     <r>
       <rPr>
@@ -117,8 +117,11 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -127,7 +130,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>필수</t>
+      <t>생산자</t>
     </r>
     <r>
       <rPr>
@@ -136,15 +139,8 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>영업중, 폐업, 휴업 중 선택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
+      <t>(</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -153,7 +149,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>영업상태</t>
+      <t>필수</t>
     </r>
     <r>
       <rPr>
@@ -162,8 +158,15 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산자 입력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -172,7 +175,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>필수</t>
+      <t>분석결과</t>
     </r>
     <r>
       <rPr>
@@ -181,15 +184,8 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증받은 품목명 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
+      <t>(</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -198,7 +194,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>품목명</t>
+      <t>필수</t>
     </r>
     <r>
       <rPr>
@@ -207,8 +203,15 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적합, 부적합, 분석중 중 선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -217,7 +220,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>필수</t>
+      <t>조사기관</t>
     </r>
     <r>
       <rPr>
@@ -226,15 +229,8 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
+      <t>(</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -243,7 +239,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>주소</t>
+      <t>필수</t>
     </r>
     <r>
       <rPr>
@@ -252,8 +248,15 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사기관 입력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -262,7 +265,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>필수</t>
+      <t>조사물질</t>
     </r>
     <r>
       <rPr>
@@ -271,15 +274,8 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자로 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
+      <t>(</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -288,7 +284,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>업소명</t>
+      <t>필수</t>
     </r>
     <r>
       <rPr>
@@ -297,8 +293,15 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사물질 입력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -307,7 +310,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>필수</t>
+      <t>생산지</t>
     </r>
     <r>
       <rPr>
@@ -316,26 +319,7 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>농산물, 수산물, 축산물, 공산품 중 선택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리(필수)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증번호 형식에 맞게 입력
-예) 2024-05-0328</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HACCP </t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -345,7 +329,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>지정번호</t>
+      <t>필수</t>
     </r>
     <r>
       <rPr>
@@ -354,43 +338,157 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>필수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
       <t>)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력값</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>식품의 생산지를 목록 중 선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석결과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>농산물</t>
+  </si>
+  <si>
+    <t>농산물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수산물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축산물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공산품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부적합</t>
+  </si>
+  <si>
+    <t>부적합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>천안</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의정부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>person1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주</t>
+  </si>
+  <si>
+    <t>inspecor1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>materials1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +564,30 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -530,10 +652,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -543,27 +663,26 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -579,11 +698,22 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -607,20 +737,17 @@
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -656,13 +783,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -691,17 +811,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:H2" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:H2" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A1:H2"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="HACCP 지정번호" dataDxfId="6"/>
     <tableColumn id="2" name="카테고리"/>
-    <tableColumn id="3" name="업소명"/>
-    <tableColumn id="4" name="주소"/>
-    <tableColumn id="5" name="품목명"/>
-    <tableColumn id="6" name="영업상태"/>
-    <tableColumn id="7" name="인증 종료일자" dataDxfId="5"/>
-    <tableColumn id="8" name="데이터 입력완료여부" dataDxfId="4">
+    <tableColumn id="3" name="품목"/>
+    <tableColumn id="4" name="생산자"/>
+    <tableColumn id="5" name="분석결과"/>
+    <tableColumn id="6" name="조사기관"/>
+    <tableColumn id="1" name="조사물질" dataDxfId="2"/>
+    <tableColumn id="7" name="생산지" dataDxfId="4"/>
+    <tableColumn id="8" name="데이터 입력완료여부" dataDxfId="3">
       <calculatedColumnFormula>IF(COUNTA($A2:$G2)&lt;COLUMNS($A2:$G2), "데이터를 모두 입력하세요", "입력 완료")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -974,18 +1094,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F6:F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -994,87 +1114,92 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4">
-        <v>45658</v>
-      </c>
-      <c r="H2" s="3" t="str">
-        <f t="shared" ref="H2" si="0">IF(COUNTA($A2:$G2)&lt;COLUMNS($A2:$G2), "데이터를 모두 입력하세요", "입력 완료")</f>
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>IF(COUNTA($A2:$G2)&lt;COLUMNS($A2:$G2), "데이터를 모두 입력하세요", "입력 완료")</f>
         <v>입력 완료</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="완료">
+      <formula>NOT(ISERROR(SEARCH("완료",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2:G2">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>COUNTA($A2:$G2)&lt;COLUMNS($A2:$G2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="완료">
-      <formula>NOT(ISERROR(SEARCH("완료",H2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="형식오류" error="적절한 형식으로 입력하세요._x000a_예)0000-00-0000" sqref="A2">
-      <formula1>AND(ISNUMBER(VALUE(LEFT(A2,4))),MID(A2,5,1)="-",ISNUMBER(VALUE(MID(A2,6,2))),MID(A2,8,1)="-",ISNUMBER(VALUE(RIGHT(A2,4))))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="입력 오류" error="모든 데이터를 입력해야 합니다." promptTitle="날짜형식" prompt="날짜형식에 맞게 입력해주세요_x000a_예)2024-1-1" sqref="G2">
-      <formula1>COUNTA($A2:$G2)=COLUMNS($A2:$G2)</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" operator="greaterThan" allowBlank="1" showErrorMessage="1" errorTitle="입력 오류" error="모든 데이터를 입력해야 합니다.">
           <x14:formula1>
-            <xm:f>'[haccp-template (2).xlsx]입력데이터 설명'!#REF!</xm:f>
+            <xm:f>'입력데이터 설명'!$F$2:$F$19</xm:f>
           </x14:formula1>
-          <xm:sqref>B2 F2</xm:sqref>
+          <xm:sqref>G2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="형식 오류" error="목록 중 선택하세요_x000a_">
+          <x14:formula1>
+            <xm:f>'입력데이터 설명'!$D$2:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="형식 오류" error="목록 중 값을 선택하세요">
+          <x14:formula1>
+            <xm:f>'입력데이터 설명'!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1084,85 +1209,188 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="F8" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
